--- a/results/pvalue_SIDER_all_enzyme_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_all_enzyme_AUPR+AUROCperdrug.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11.791</t>
+          <t>16.044</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11.573</t>
+          <t>15.996</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.104</t>
+          <t>16.744</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11.198</t>
+          <t>15.533</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23.601</t>
+          <t>22.964</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>23.268</t>
+          <t>22.634</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>23.446</t>
+          <t>22.804</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>23.152</t>
+          <t>22.523</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>17.989</t>
+          <t>16.708</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
